--- a/database/industries/methanol/shekhark/income/quarterly/dollar_cumulative.xlsx
+++ b/database/industries/methanol/shekhark/income/quarterly/dollar_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekhark\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA8456C-86D3-4006-9175-D518D1C96949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C387E11-C7D0-4C34-91B0-E467AA4A069F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>6 ماهه منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>9 ماهه منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>9 ماهه منتهی به 1401/09</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-30 (4)</t>
-  </si>
-  <si>
     <t>1400-12-28 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-10-29 (3)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-27 (9)</t>
   </si>
   <si>
     <t>1401-04-23</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-29</t>
+  </si>
+  <si>
+    <t>1402-02-27 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="9" width="28" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="13" width="28" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>71692</v>
+        <v>125751</v>
       </c>
       <c r="E11" s="13">
-        <v>125751</v>
+        <v>228686</v>
       </c>
       <c r="F11" s="13">
-        <v>228686</v>
+        <v>75541</v>
       </c>
       <c r="G11" s="13">
-        <v>75541</v>
+        <v>169406</v>
       </c>
       <c r="H11" s="13">
-        <v>169406</v>
+        <v>238037</v>
       </c>
       <c r="I11" s="13">
-        <v>238037</v>
+        <v>352514</v>
       </c>
       <c r="J11" s="13">
-        <v>352514</v>
+        <v>85888</v>
       </c>
       <c r="K11" s="13">
-        <v>85888</v>
+        <v>160455</v>
       </c>
       <c r="L11" s="13">
-        <v>160455</v>
+        <v>247516</v>
       </c>
       <c r="M11" s="13">
-        <v>247516</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>316807</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-26724</v>
+        <v>-48168</v>
       </c>
       <c r="E12" s="11">
-        <v>-48168</v>
+        <v>-82129</v>
       </c>
       <c r="F12" s="11">
-        <v>-82129</v>
+        <v>-33515</v>
       </c>
       <c r="G12" s="11">
-        <v>-33515</v>
+        <v>-76429</v>
       </c>
       <c r="H12" s="11">
-        <v>-76429</v>
+        <v>-116323</v>
       </c>
       <c r="I12" s="11">
-        <v>-116323</v>
+        <v>-208726</v>
       </c>
       <c r="J12" s="11">
-        <v>-208726</v>
+        <v>-43474</v>
       </c>
       <c r="K12" s="11">
-        <v>-43474</v>
+        <v>-99560</v>
       </c>
       <c r="L12" s="11">
-        <v>-99560</v>
+        <v>-159036</v>
       </c>
       <c r="M12" s="11">
-        <v>-159036</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-189744</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>44968</v>
+        <v>77583</v>
       </c>
       <c r="E13" s="15">
-        <v>77583</v>
+        <v>146557</v>
       </c>
       <c r="F13" s="15">
-        <v>146557</v>
+        <v>42026</v>
       </c>
       <c r="G13" s="15">
-        <v>42026</v>
+        <v>92977</v>
       </c>
       <c r="H13" s="15">
-        <v>92977</v>
+        <v>121714</v>
       </c>
       <c r="I13" s="15">
-        <v>121714</v>
+        <v>143788</v>
       </c>
       <c r="J13" s="15">
-        <v>143788</v>
+        <v>42414</v>
       </c>
       <c r="K13" s="15">
-        <v>42414</v>
+        <v>60896</v>
       </c>
       <c r="L13" s="15">
-        <v>60896</v>
+        <v>88481</v>
       </c>
       <c r="M13" s="15">
-        <v>88481</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>127064</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-17077</v>
+        <v>-25077</v>
       </c>
       <c r="E14" s="11">
-        <v>-25077</v>
+        <v>-42511</v>
       </c>
       <c r="F14" s="11">
-        <v>-42511</v>
+        <v>-9723</v>
       </c>
       <c r="G14" s="11">
-        <v>-9723</v>
+        <v>-20553</v>
       </c>
       <c r="H14" s="11">
-        <v>-20553</v>
+        <v>-25206</v>
       </c>
       <c r="I14" s="11">
-        <v>-25206</v>
+        <v>-36980</v>
       </c>
       <c r="J14" s="11">
-        <v>-36980</v>
+        <v>-4001</v>
       </c>
       <c r="K14" s="11">
-        <v>-4001</v>
+        <v>-12419</v>
       </c>
       <c r="L14" s="11">
-        <v>-12419</v>
+        <v>-20232</v>
       </c>
       <c r="M14" s="11">
-        <v>-20232</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-30360</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,79 +1006,79 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>41951</v>
+        <v>45769</v>
       </c>
       <c r="E16" s="11">
-        <v>45769</v>
+        <v>38308</v>
       </c>
       <c r="F16" s="11">
-        <v>38308</v>
+        <v>502</v>
       </c>
       <c r="G16" s="11">
-        <v>502</v>
+        <v>8356</v>
       </c>
       <c r="H16" s="11">
-        <v>8356</v>
+        <v>8664</v>
       </c>
       <c r="I16" s="11">
-        <v>8664</v>
-      </c>
-      <c r="J16" s="11">
         <v>6228</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>31</v>
+      <c r="J16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="11">
+        <v>8519</v>
       </c>
       <c r="L16" s="11">
-        <v>8519</v>
+        <v>10313</v>
       </c>
       <c r="M16" s="11">
-        <v>10313</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>29314</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>69841</v>
+        <v>98275</v>
       </c>
       <c r="E17" s="15">
-        <v>98275</v>
+        <v>142354</v>
       </c>
       <c r="F17" s="15">
-        <v>142354</v>
+        <v>32805</v>
       </c>
       <c r="G17" s="15">
-        <v>32805</v>
+        <v>80780</v>
       </c>
       <c r="H17" s="15">
-        <v>80780</v>
+        <v>105172</v>
       </c>
       <c r="I17" s="15">
-        <v>105172</v>
+        <v>113036</v>
       </c>
       <c r="J17" s="15">
-        <v>113036</v>
+        <v>38413</v>
       </c>
       <c r="K17" s="15">
-        <v>38413</v>
+        <v>56996</v>
       </c>
       <c r="L17" s="15">
-        <v>56996</v>
+        <v>78562</v>
       </c>
       <c r="M17" s="15">
-        <v>78562</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>126018</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
@@ -1113,151 +1114,151 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>3657</v>
+        <v>5530</v>
       </c>
       <c r="E19" s="13">
-        <v>5530</v>
+        <v>7356</v>
       </c>
       <c r="F19" s="13">
-        <v>7356</v>
+        <v>851</v>
       </c>
       <c r="G19" s="13">
-        <v>851</v>
+        <v>3060</v>
       </c>
       <c r="H19" s="13">
-        <v>3060</v>
+        <v>5083</v>
       </c>
       <c r="I19" s="13">
-        <v>5083</v>
+        <v>7245</v>
       </c>
       <c r="J19" s="13">
-        <v>7245</v>
+        <v>1228</v>
       </c>
       <c r="K19" s="13">
-        <v>1228</v>
+        <v>4815</v>
       </c>
       <c r="L19" s="13">
-        <v>4815</v>
+        <v>5482</v>
       </c>
       <c r="M19" s="13">
-        <v>5482</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6057</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>73498</v>
+        <v>103805</v>
       </c>
       <c r="E20" s="17">
-        <v>103805</v>
+        <v>149710</v>
       </c>
       <c r="F20" s="17">
-        <v>149710</v>
+        <v>33655</v>
       </c>
       <c r="G20" s="17">
-        <v>33655</v>
+        <v>83840</v>
       </c>
       <c r="H20" s="17">
-        <v>83840</v>
+        <v>110255</v>
       </c>
       <c r="I20" s="17">
-        <v>110255</v>
+        <v>120281</v>
       </c>
       <c r="J20" s="17">
-        <v>120281</v>
+        <v>39640</v>
       </c>
       <c r="K20" s="17">
-        <v>39640</v>
+        <v>61811</v>
       </c>
       <c r="L20" s="17">
-        <v>61811</v>
+        <v>84044</v>
       </c>
       <c r="M20" s="17">
-        <v>84044</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>132075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-160</v>
+        <v>-141</v>
       </c>
       <c r="E21" s="13">
-        <v>-141</v>
-      </c>
-      <c r="F21" s="13">
         <v>-137</v>
       </c>
+      <c r="F21" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>31</v>
+      <c r="H21" s="13">
+        <v>-221</v>
       </c>
       <c r="I21" s="13">
-        <v>-221</v>
+        <v>-12288</v>
       </c>
       <c r="J21" s="13">
-        <v>-12288</v>
+        <v>-5257</v>
       </c>
       <c r="K21" s="13">
-        <v>-5257</v>
+        <v>-11991</v>
       </c>
       <c r="L21" s="13">
-        <v>-11991</v>
+        <v>-16586</v>
       </c>
       <c r="M21" s="13">
-        <v>-16586</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-23050</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>73338</v>
+        <v>103665</v>
       </c>
       <c r="E22" s="17">
-        <v>103665</v>
+        <v>149573</v>
       </c>
       <c r="F22" s="17">
-        <v>149573</v>
+        <v>33655</v>
       </c>
       <c r="G22" s="17">
-        <v>33655</v>
+        <v>83840</v>
       </c>
       <c r="H22" s="17">
-        <v>83840</v>
+        <v>110035</v>
       </c>
       <c r="I22" s="17">
-        <v>110035</v>
+        <v>107993</v>
       </c>
       <c r="J22" s="17">
-        <v>107993</v>
+        <v>34383</v>
       </c>
       <c r="K22" s="17">
-        <v>34383</v>
+        <v>49820</v>
       </c>
       <c r="L22" s="17">
-        <v>49820</v>
+        <v>67458</v>
       </c>
       <c r="M22" s="17">
-        <v>67458</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>109025</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>73338</v>
+        <v>103665</v>
       </c>
       <c r="E24" s="17">
-        <v>103665</v>
+        <v>149573</v>
       </c>
       <c r="F24" s="17">
-        <v>149573</v>
+        <v>33655</v>
       </c>
       <c r="G24" s="17">
-        <v>33655</v>
+        <v>83840</v>
       </c>
       <c r="H24" s="17">
-        <v>83840</v>
+        <v>110035</v>
       </c>
       <c r="I24" s="17">
-        <v>110035</v>
+        <v>107993</v>
       </c>
       <c r="J24" s="17">
-        <v>107993</v>
+        <v>34383</v>
       </c>
       <c r="K24" s="17">
-        <v>34383</v>
+        <v>49820</v>
       </c>
       <c r="L24" s="17">
-        <v>49820</v>
+        <v>67458</v>
       </c>
       <c r="M24" s="17">
-        <v>67458</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>109025</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1346,62 +1347,62 @@
       <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>31</v>
+      <c r="H25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
       </c>
       <c r="K25" s="13">
         <v>0</v>
       </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>30977</v>
+        <v>27278</v>
       </c>
       <c r="E26" s="11">
-        <v>27278</v>
+        <v>26537</v>
       </c>
       <c r="F26" s="11">
-        <v>26537</v>
+        <v>25718</v>
       </c>
       <c r="G26" s="11">
-        <v>25718</v>
-      </c>
-      <c r="H26" s="11">
         <v>24212</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>31</v>
+      <c r="H26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="11">
+        <v>22740</v>
+      </c>
+      <c r="J26" s="11">
+        <v>20419</v>
       </c>
       <c r="K26" s="11">
-        <v>20419</v>
-      </c>
-      <c r="L26" s="11">
         <v>19871</v>
       </c>
-      <c r="M26" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="11">
+        <v>17002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
